--- a/baseline_model/data/House_Info.xlsx
+++ b/baseline_model/data/House_Info.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shengyc\Documents\GitHub\Long_term\baseline_model\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shengyc\Documents\GitHub\Long_Term_Housing_Planning\baseline_model\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F66D2D1E-767F-462C-9180-812744BA5891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80640692-DA8D-49A6-8453-C3DAAB134BA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -387,7 +387,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="D1" sqref="D1:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -441,6 +441,12 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
       <c r="D2" s="1">
         <v>0</v>
       </c>
@@ -448,6 +454,12 @@
         <v>0</v>
       </c>
       <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="H2" s="1">
         <v>0</v>
       </c>
       <c r="I2" s="1">
@@ -461,6 +473,12 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="B3" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.1</v>
+      </c>
       <c r="D3" s="1">
         <v>0</v>
       </c>
@@ -469,6 +487,12 @@
       </c>
       <c r="F3" s="1">
         <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.1</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
@@ -480,6 +504,33 @@
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>12</v>
+      </c>
+      <c r="B4" s="1">
+        <v>73735</v>
+      </c>
+      <c r="C4" s="1">
+        <v>73735</v>
+      </c>
+      <c r="D4" s="1">
+        <v>500</v>
+      </c>
+      <c r="E4" s="1">
+        <v>300</v>
+      </c>
+      <c r="F4" s="1">
+        <v>300</v>
+      </c>
+      <c r="G4" s="1">
+        <v>69000</v>
+      </c>
+      <c r="H4" s="1">
+        <v>36000</v>
+      </c>
+      <c r="I4" s="1">
+        <v>500</v>
+      </c>
+      <c r="J4" s="1">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/baseline_model/data/House_Info.xlsx
+++ b/baseline_model/data/House_Info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shengyc\Documents\GitHub\Long_Term_Housing_Planning\baseline_model\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80640692-DA8D-49A6-8453-C3DAAB134BA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0431BCC-ABCF-46BA-B194-FFA8FE903CD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -387,7 +387,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:F4"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>

--- a/baseline_model/data/House_Info.xlsx
+++ b/baseline_model/data/House_Info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shengyc\Documents\GitHub\Long_Term_Housing_Planning\baseline_model\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0431BCC-ABCF-46BA-B194-FFA8FE903CD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D8DCB47-0FBD-4BA2-A7F4-D295B5DB7B9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Type</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>O_p</t>
+  </si>
+  <si>
+    <t>R_p</t>
   </si>
 </sst>
 </file>
@@ -384,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,6 +536,38 @@
         <v>100</v>
       </c>
     </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/baseline_model/data/House_Info.xlsx
+++ b/baseline_model/data/House_Info.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shengyc\Documents\GitHub\Long_Term_Housing_Planning\baseline_model\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yin\Desktop\bay\Long_Term_Housing_Planning\baseline_model\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D8DCB47-0FBD-4BA2-A7F4-D295B5DB7B9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C581E3D0-3CFA-4BEC-B3EA-ECF277AD0674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="16440" windowHeight="29040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Type</t>
   </si>
@@ -67,6 +67,12 @@
   </si>
   <si>
     <t>R_p</t>
+  </si>
+  <si>
+    <t>u_p</t>
+  </si>
+  <si>
+    <t>E_p</t>
   </si>
 </sst>
 </file>
@@ -387,28 +393,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -440,7 +446,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -472,7 +478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -504,7 +510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -536,7 +542,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -566,6 +572,70 @@
       </c>
       <c r="J5" s="1">
         <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/baseline_model/data/House_Info.xlsx
+++ b/baseline_model/data/House_Info.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yin\Desktop\bay\Long_Term_Housing_Planning\baseline_model\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shengyc\Documents\GitHub\Long_Term_Housing_Planning\baseline_model\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C581E3D0-3CFA-4BEC-B3EA-ECF277AD0674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{855F5E59-105E-4F07-89DA-48AF4AC8F644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="16440" windowHeight="29040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Type</t>
   </si>
@@ -39,30 +39,12 @@
     <t>MHU_A</t>
   </si>
   <si>
-    <t>MHU_inA</t>
-  </si>
-  <si>
-    <t>MFL_Repair</t>
-  </si>
-  <si>
-    <t>Hotel_A</t>
-  </si>
-  <si>
-    <t>Hotel_inA</t>
-  </si>
-  <si>
     <t>RAPIDO</t>
   </si>
   <si>
     <t>K_Cot</t>
   </si>
   <si>
-    <t>D_Home</t>
-  </si>
-  <si>
-    <t>Shelter</t>
-  </si>
-  <si>
     <t>O_p</t>
   </si>
   <si>
@@ -72,7 +54,7 @@
     <t>u_p</t>
   </si>
   <si>
-    <t>E_p</t>
+    <t>trailer</t>
   </si>
 </sst>
 </file>
@@ -393,28 +375,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -422,31 +399,16 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -457,28 +419,13 @@
         <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -489,62 +436,32 @@
         <v>0.1</v>
       </c>
       <c r="D3" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1">
         <v>0.1</v>
       </c>
-      <c r="H3" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1">
         <v>73735</v>
       </c>
       <c r="C4" s="1">
-        <v>73735</v>
+        <v>33364</v>
       </c>
       <c r="D4" s="1">
-        <v>500</v>
+        <v>69000</v>
       </c>
       <c r="E4" s="1">
-        <v>300</v>
-      </c>
-      <c r="F4" s="1">
-        <v>300</v>
-      </c>
-      <c r="G4" s="1">
-        <v>69000</v>
-      </c>
-      <c r="H4" s="1">
         <v>36000</v>
       </c>
-      <c r="I4" s="1">
-        <v>500</v>
-      </c>
-      <c r="J4" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1">
         <v>0.5</v>
@@ -553,89 +470,27 @@
         <v>0.5</v>
       </c>
       <c r="D5" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
         <v>0.5</v>
       </c>
-      <c r="H5" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" s="1">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1</v>
-      </c>
-      <c r="H6" s="1">
-        <v>1</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="1">
-        <v>0</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1000</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1000</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1000</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1">
-        <v>1000</v>
-      </c>
-      <c r="J7" s="1">
-        <v>1000</v>
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/baseline_model/data/House_Info.xlsx
+++ b/baseline_model/data/House_Info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shengyc\Documents\GitHub\Long_Term_Housing_Planning\baseline_model\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{855F5E59-105E-4F07-89DA-48AF4AC8F644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7606ED0D-D21B-4F1A-840F-FC941BC39D96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -378,7 +378,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,7 +450,7 @@
         <v>73735</v>
       </c>
       <c r="C4" s="1">
-        <v>33364</v>
+        <v>73735</v>
       </c>
       <c r="D4" s="1">
         <v>69000</v>

--- a/baseline_model/data/House_Info.xlsx
+++ b/baseline_model/data/House_Info.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shengyc\Documents\GitHub\Long_Term_Housing_Planning\baseline_model\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yin\Desktop\bay\Long_Term_Housing_Planning\baseline_model\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7606ED0D-D21B-4F1A-840F-FC941BC39D96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D2883BE-B098-4EDE-A6F5-A70C0282626D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1068" yWindow="-108" windowWidth="29760" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -378,20 +378,20 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -408,7 +408,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -425,7 +425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -442,7 +442,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -459,24 +459,24 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="1">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="C5" s="1">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D5" s="1">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="E5" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>

--- a/baseline_model/data/House_Info.xlsx
+++ b/baseline_model/data/House_Info.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yin\Desktop\bay\Long_Term_Housing_Planning\baseline_model\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shengyc\Documents\GitHub\Long_Term_Housing_Planning\baseline_model\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D2883BE-B098-4EDE-A6F5-A70C0282626D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF34450B-3F48-40AB-995A-87848A324297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1068" yWindow="-108" windowWidth="29760" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -378,20 +378,20 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -408,7 +408,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -419,13 +419,13 @@
         <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -442,7 +442,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -456,10 +456,10 @@
         <v>69000</v>
       </c>
       <c r="E4" s="1">
-        <v>36000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>69000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -476,7 +476,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
